--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D420639A-9232-4C52-A94E-E3E2508E84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898999EE-AAD6-404B-83AB-9F4FB1B85652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
   <si>
-    <t>ccao-condominium.R</t>
-  </si>
-  <si>
     <t>housing-ihs_index.R</t>
   </si>
   <si>
@@ -151,6 +148,33 @@
   </si>
   <si>
     <t>Needs to be run again early 2023</t>
+  </si>
+  <si>
+    <t>waiting to hear from Ray on subdivisions</t>
+  </si>
+  <si>
+    <t>waiting to hear from Josh on 2022 parcels</t>
+  </si>
+  <si>
+    <t>nothing to update, 12/14/22</t>
+  </si>
+  <si>
+    <t>waiting to hear from Josh on 21/22 school tax districts</t>
+  </si>
+  <si>
+    <t>waiting to hear from Josh on 21/22 tax districts</t>
+  </si>
+  <si>
+    <t>PACE feed no longer maintained</t>
+  </si>
+  <si>
+    <t>ccao-condominium_parking.R</t>
+  </si>
+  <si>
+    <t>waitin on valuations</t>
+  </si>
+  <si>
+    <t>waiting on great schools api</t>
   </si>
 </sst>
 </file>
@@ -518,7 +542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,229 +556,262 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>44902</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>44902</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>44907</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>44902</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>44903</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1"/>
     </row>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898999EE-AAD6-404B-83AB-9F4FB1B85652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E053CA-A73F-4D8A-BC2E-B504EEF9793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -147,9 +147,6 @@
     <t>deprectaed, 12/8/22</t>
   </si>
   <si>
-    <t>Needs to be run again early 2023</t>
-  </si>
-  <si>
     <t>waiting to hear from Ray on subdivisions</t>
   </si>
   <si>
@@ -171,10 +168,79 @@
     <t>ccao-condominium_parking.R</t>
   </si>
   <si>
-    <t>waitin on valuations</t>
-  </si>
-  <si>
     <t>waiting on great schools api</t>
+  </si>
+  <si>
+    <t>needs to be run again early 2023</t>
+  </si>
+  <si>
+    <t>ccao-dictionary.R</t>
+  </si>
+  <si>
+    <t>ccao-land-land_nbhd_rate.R</t>
+  </si>
+  <si>
+    <t>ccao-land-land_site_rate.R</t>
+  </si>
+  <si>
+    <t>ccao-other-hie.R</t>
+  </si>
+  <si>
+    <t>census-acs.R</t>
+  </si>
+  <si>
+    <t>census-decennial.R</t>
+  </si>
+  <si>
+    <t>census-dictionary.R</t>
+  </si>
+  <si>
+    <t>environment-airport_noise.R</t>
+  </si>
+  <si>
+    <t>environment-flood_first_street.R</t>
+  </si>
+  <si>
+    <t>export-geojson.R</t>
+  </si>
+  <si>
+    <t>spatial-ccao-county.R</t>
+  </si>
+  <si>
+    <t>spatial-ccao-neighborhood.R</t>
+  </si>
+  <si>
+    <t>spatial-ccao-township.R</t>
+  </si>
+  <si>
+    <t>spatial-environment-golf_course.R</t>
+  </si>
+  <si>
+    <t>spatial-environment-major_road.R</t>
+  </si>
+  <si>
+    <t>spatial-environment-midway_noise.R</t>
+  </si>
+  <si>
+    <t>tax-ptaxsim.R</t>
+  </si>
+  <si>
+    <t>no need to update, 12/15/22</t>
+  </si>
+  <si>
+    <t>waiting on valuations, 12/15/22</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>no new data available</t>
+  </si>
+  <si>
+    <t>waiting on decision vis-à-vis smartfile</t>
+  </si>
+  <si>
+    <t>needs to be run again early 2023(?)</t>
   </si>
 </sst>
 </file>
@@ -195,12 +261,18 @@
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,6 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,9 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +623,7 @@
     <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -571,17 +644,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
+      <c r="D2" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -634,7 +707,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,7 +720,9 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -657,12 +732,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>45</v>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,11 +764,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -721,11 +796,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -737,20 +812,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +833,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,20 +848,20 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +875,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,14 +898,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E053CA-A73F-4D8A-BC2E-B504EEF9793E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F141790-5EE2-485C-86F5-FC9A8AC1DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -138,12 +138,6 @@
     <t>no need to update, 12/8/22</t>
   </si>
   <si>
-    <t>census shapefiles for 2022 not yet available 12/8/22</t>
-  </si>
-  <si>
-    <t>tigris not yet updated with 2022 data</t>
-  </si>
-  <si>
     <t>deprectaed, 12/8/22</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>ccao-condominium_parking.R</t>
   </si>
   <si>
-    <t>waiting on great schools api</t>
-  </si>
-  <si>
     <t>needs to be run again early 2023</t>
   </si>
   <si>
@@ -241,13 +232,40 @@
   </si>
   <si>
     <t>needs to be run again early 2023(?)</t>
+  </si>
+  <si>
+    <t>waiting to hear from Josh on railroads (everything else is done)</t>
+  </si>
+  <si>
+    <t>nothing to update 12/19/22</t>
+  </si>
+  <si>
+    <t>2020 acs1 data not included</t>
+  </si>
+  <si>
+    <t>no need to update, 12/19/22</t>
+  </si>
+  <si>
+    <t>waiting on josh, 12/19/22</t>
+  </si>
+  <si>
+    <t>nothing to update, 12/19/22</t>
+  </si>
+  <si>
+    <t>waiting on valuations, 12/20/22</t>
+  </si>
+  <si>
+    <t>waiting on…?</t>
+  </si>
+  <si>
+    <t>nothing to update, 12/20/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +277,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="JetBrains Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,6 +320,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,12 +674,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -707,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -729,15 +754,15 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,12 +789,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
+      <c r="B14" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -796,15 +824,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -812,31 +840,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -848,23 +876,23 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -875,10 +903,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -900,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,85 +958,109 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>63</v>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,18 +1074,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>66</v>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
+      <c r="B16" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1046,12 +1107,15 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,100 +1150,176 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="B25" s="6">
+        <v>44914</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>59</v>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44915</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="1">
+        <v>44903</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>44915</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>44914</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F141790-5EE2-485C-86F5-FC9A8AC1DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D15A198-5DD9-444C-88EA-C0D00DC889EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,8 +320,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,11 +755,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -929,7 +927,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,14 +1170,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>44914</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1191,22 +1189,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="1">
         <v>44915</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1289,10 +1287,10 @@
       <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1">
         <v>44915</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
@@ -1303,10 +1301,10 @@
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>44914</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>28</v>
       </c>
     </row>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D15A198-5DD9-444C-88EA-C0D00DC889EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095FBB5-6E0C-4ADF-A0D5-282824EB1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,6 +320,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,72 +824,87 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="6">
+        <v>44924</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="6">
+        <v>44924</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="6">
+        <v>44924</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>44903</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="6">
+        <v>44924</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>38</v>
+      <c r="B25" s="6">
+        <v>44924</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,7 +944,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095FBB5-6E0C-4ADF-A0D5-282824EB1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC679F3-5F6E-4F21-A1CF-730ED11D2AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -234,9 +234,6 @@
     <t>needs to be run again early 2023(?)</t>
   </si>
   <si>
-    <t>waiting to hear from Josh on railroads (everything else is done)</t>
-  </si>
-  <si>
     <t>nothing to update 12/19/22</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>nothing to update, 12/20/22</t>
+  </si>
+  <si>
+    <t>1/11/20203</t>
   </si>
 </sst>
 </file>
@@ -320,8 +320,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,86 +826,86 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>44924</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>44924</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>44924</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>44903</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>44924</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>44924</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -943,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1020,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,7 +1034,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,7 +1077,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1213,7 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,27 +1243,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="1">
+        <v>44925</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="B32" s="1">
+        <v>44925</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="1">
+        <v>44931</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1270,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="1">
-        <v>44903</v>
+        <v>44566</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -1288,6 +1305,12 @@
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B36" s="5">
+        <v>44936</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1296,6 +1319,12 @@
       <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1330,7 +1359,7 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC679F3-5F6E-4F21-A1CF-730ED11D2AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5BFC3-5486-4193-949D-A2CAD6F2AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Warehouse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -141,21 +142,9 @@
     <t>deprectaed, 12/8/22</t>
   </si>
   <si>
-    <t>waiting to hear from Ray on subdivisions</t>
-  </si>
-  <si>
-    <t>waiting to hear from Josh on 2022 parcels</t>
-  </si>
-  <si>
     <t>nothing to update, 12/14/22</t>
   </si>
   <si>
-    <t>waiting to hear from Josh on 21/22 school tax districts</t>
-  </si>
-  <si>
-    <t>waiting to hear from Josh on 21/22 tax districts</t>
-  </si>
-  <si>
     <t>PACE feed no longer maintained</t>
   </si>
   <si>
@@ -241,9 +230,6 @@
   </si>
   <si>
     <t>no need to update, 12/19/22</t>
-  </si>
-  <si>
-    <t>waiting on josh, 12/19/22</t>
   </si>
   <si>
     <t>nothing to update, 12/19/22</t>
@@ -310,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,10 +306,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,7 +630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,12 +664,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -723,32 +711,32 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>44907</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>44902</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,52 +968,52 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>44914</v>
@@ -1034,20 +1022,20 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>44914</v>
@@ -1058,26 +1046,29 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44573</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,7 +1115,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1132,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,7 +1137,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,7 +1158,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -1175,7 +1166,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1183,7 +1174,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1210,15 +1201,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
         <v>44915</v>
@@ -1229,7 +1220,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1264,9 +1255,6 @@
       <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1278,16 +1266,13 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,32 +1286,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="1">
         <v>44936</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>38</v>
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,10 +1335,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5BFC3-5486-4193-949D-A2CAD6F2AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2329B-1751-48F7-B391-BC15C6FF1C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Warehouse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -618,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,7 +933,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,12 +962,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
+      <c r="B2" s="8">
+        <v>44979</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,14 +1059,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="1">
         <v>44573</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1095,13 +1094,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>44907</v>
+        <v>44984</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,13 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>44910</v>
+        <v>44984</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE2329B-1751-48F7-B391-BC15C6FF1C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4B027D-835F-4661-A0A2-23140B8FF167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -138,9 +138,6 @@
     <t>no need to update, 12/8/22</t>
   </si>
   <si>
-    <t>deprectaed, 12/8/22</t>
-  </si>
-  <si>
     <t>nothing to update, 12/14/22</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>ccao-condominium_parking.R</t>
   </si>
   <si>
-    <t>needs to be run again early 2023</t>
-  </si>
-  <si>
     <t>ccao-dictionary.R</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>waiting on decision vis-à-vis smartfile</t>
   </si>
   <si>
-    <t>needs to be run again early 2023(?)</t>
-  </si>
-  <si>
-    <t>nothing to update 12/19/22</t>
-  </si>
-  <si>
     <t>2020 acs1 data not included</t>
   </si>
   <si>
@@ -244,6 +232,24 @@
   </si>
   <si>
     <t>1/11/20203</t>
+  </si>
+  <si>
+    <t>spatial-environment-golf_course.py</t>
+  </si>
+  <si>
+    <t>waiting on field, 10/04/23</t>
+  </si>
+  <si>
+    <t>no need to update, 10/04/23</t>
+  </si>
+  <si>
+    <t>2017 data no longer available, should we delete?</t>
+  </si>
+  <si>
+    <t>no need to update, 10/05/23</t>
+  </si>
+  <si>
+    <t>nothing to update, 10/05/23</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -309,8 +315,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,15 +667,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>44902</v>
+        <v>45203</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -690,111 +697,92 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>44902</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>44902</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>44907</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>44902</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45203</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44911</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,12 +805,8 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
-        <v>44924</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -836,91 +820,59 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>44924</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
-        <v>44924</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
-        <v>44903</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
-        <v>44924</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>44924</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
-        <v>44909</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <v>44902</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2032733072</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,57 +914,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>44979</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>44914</v>
@@ -1021,20 +973,20 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>44914</v>
@@ -1045,23 +997,23 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>44573</v>
@@ -1086,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,7 +1103,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -1159,7 +1111,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1167,7 +1119,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1194,15 +1146,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>44915</v>
@@ -1213,7 +1165,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1265,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1312,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,10 +1280,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4B027D-835F-4661-A0A2-23140B8FF167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80CAFDE-FD41-462D-ACD2-324CEA259EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -138,9 +138,6 @@
     <t>no need to update, 12/8/22</t>
   </si>
   <si>
-    <t>nothing to update, 12/14/22</t>
-  </si>
-  <si>
     <t>PACE feed no longer maintained</t>
   </si>
   <si>
@@ -243,13 +240,34 @@
     <t>no need to update, 10/04/23</t>
   </si>
   <si>
-    <t>2017 data no longer available, should we delete?</t>
-  </si>
-  <si>
     <t>no need to update, 10/05/23</t>
   </si>
   <si>
     <t>nothing to update, 10/05/23</t>
+  </si>
+  <si>
+    <t>nothing to update, 10/17/23</t>
+  </si>
+  <si>
+    <t>Not sure how to identify new golf courses</t>
+  </si>
+  <si>
+    <t>floodplains updated, new michigan coastline/cook hydrology not out yet, 10/17/23</t>
+  </si>
+  <si>
+    <t>no need to update, 10/17/23</t>
+  </si>
+  <si>
+    <t>waiting on GIS, 10/17/23</t>
+  </si>
+  <si>
+    <t>added city of chicago historical school locations and updated attendance boundaries for CPS. No county districts yet for 23/24.</t>
+  </si>
+  <si>
+    <t>Needs to be run again in early 2024</t>
+  </si>
+  <si>
+    <t>switched source for PACE feed</t>
   </si>
 </sst>
 </file>
@@ -629,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,12 +685,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>45183</v>
@@ -700,7 +718,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +728,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,8 +742,15 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="1">
+        <v>45216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -742,16 +767,13 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,7 +791,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -777,12 +799,15 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,22 +823,25 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,20 +850,26 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,34 +878,42 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>45218</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2032733072</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -884,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,53 +960,55 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>44979</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45203</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>44914</v>
@@ -973,20 +1017,20 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1">
         <v>44914</v>
@@ -997,23 +1041,23 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>44573</v>
@@ -1027,9 +1071,9 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>44910</v>
-      </c>
-      <c r="C14" t="s">
+        <v>45216</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1038,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,13 +1126,19 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
+      <c r="B20" s="1">
+        <v>45216</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1153,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -1111,7 +1161,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -1119,7 +1169,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1146,15 +1196,15 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>44915</v>
@@ -1165,7 +1215,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1217,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,7 +1297,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1264,7 +1314,7 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1330,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80CAFDE-FD41-462D-ACD2-324CEA259EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC438D1-FE29-4DA4-9F41-DBA1AF8C419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -261,13 +261,13 @@
     <t>waiting on GIS, 10/17/23</t>
   </si>
   <si>
-    <t>added city of chicago historical school locations and updated attendance boundaries for CPS. No county districts yet for 23/24.</t>
-  </si>
-  <si>
     <t>Needs to be run again in early 2024</t>
   </si>
   <si>
     <t>switched source for PACE feed</t>
+  </si>
+  <si>
+    <t>Waiting to run till closer to modelling.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,19 +737,22 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>45216</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,13 +787,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -889,7 +892,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -913,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC438D1-FE29-4DA4-9F41-DBA1AF8C419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6785A-00AF-45A3-B26A-A6E7E3459C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="31545" yWindow="2745" windowWidth="21390" windowHeight="12255" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -228,9 +228,6 @@
     <t>nothing to update, 12/20/22</t>
   </si>
   <si>
-    <t>1/11/20203</t>
-  </si>
-  <si>
     <t>spatial-environment-golf_course.py</t>
   </si>
   <si>
@@ -243,24 +240,15 @@
     <t>no need to update, 10/05/23</t>
   </si>
   <si>
-    <t>nothing to update, 10/05/23</t>
-  </si>
-  <si>
     <t>nothing to update, 10/17/23</t>
   </si>
   <si>
     <t>Not sure how to identify new golf courses</t>
   </si>
   <si>
-    <t>floodplains updated, new michigan coastline/cook hydrology not out yet, 10/17/23</t>
-  </si>
-  <si>
     <t>no need to update, 10/17/23</t>
   </si>
   <si>
-    <t>waiting on GIS, 10/17/23</t>
-  </si>
-  <si>
     <t>Needs to be run again in early 2024</t>
   </si>
   <si>
@@ -268,6 +256,12 @@
   </si>
   <si>
     <t>Waiting to run till closer to modelling.</t>
+  </si>
+  <si>
+    <t>conrgessional disrtict failing for 2023</t>
+  </si>
+  <si>
+    <t>no need to update, 12/18/23</t>
   </si>
 </sst>
 </file>
@@ -319,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,10 +323,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,21 +642,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -680,15 +673,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -699,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -711,56 +704,56 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45216</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -771,141 +764,149 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="5">
+        <v>45278</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>45278</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -916,7 +917,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -929,20 +930,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -959,14 +960,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -977,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -985,7 +986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -993,7 +994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -1009,40 +1010,40 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1">
-        <v>44914</v>
-      </c>
-      <c r="C8" t="s">
+        <v>45278</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="1">
-        <v>44914</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45278</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1178,18 +1179,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>44914</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45278</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1232,18 +1233,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="1">
-        <v>44925</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45278</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1254,18 +1255,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1">
-        <v>44931</v>
+        <v>45278</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1295,18 +1296,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\data-architecture\aws-s3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6785A-00AF-45A3-B26A-A6E7E3459C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4D6E0-59E1-4197-8E7F-5C6D63DFA220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31545" yWindow="2745" windowWidth="21390" windowHeight="12255" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -111,9 +111,6 @@
     <t>spatial-transit.R</t>
   </si>
   <si>
-    <t>tax-bill_amount.R</t>
-  </si>
-  <si>
     <t>Script</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>no need to update, 12/8/22</t>
   </si>
   <si>
-    <t>PACE feed no longer maintained</t>
-  </si>
-  <si>
     <t>ccao-condominium_parking.R</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>spatial-environment-midway_noise.R</t>
   </si>
   <si>
-    <t>tax-ptaxsim.R</t>
-  </si>
-  <si>
     <t>no need to update, 12/15/22</t>
   </si>
   <si>
@@ -207,18 +198,9 @@
     <t>no new data available</t>
   </si>
   <si>
-    <t>waiting on decision vis-à-vis smartfile</t>
-  </si>
-  <si>
     <t>2020 acs1 data not included</t>
   </si>
   <si>
-    <t>no need to update, 12/19/22</t>
-  </si>
-  <si>
-    <t>nothing to update, 12/19/22</t>
-  </si>
-  <si>
     <t>waiting on valuations, 12/20/22</t>
   </si>
   <si>
@@ -231,9 +213,6 @@
     <t>spatial-environment-golf_course.py</t>
   </si>
   <si>
-    <t>waiting on field, 10/04/23</t>
-  </si>
-  <si>
     <t>no need to update, 10/04/23</t>
   </si>
   <si>
@@ -262,6 +241,12 @@
   </si>
   <si>
     <t>no need to update, 12/18/23</t>
+  </si>
+  <si>
+    <t>waiting on field, 12/18/23</t>
+  </si>
+  <si>
+    <t>not mailing early in 2023</t>
   </si>
 </sst>
 </file>
@@ -287,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,8 +321,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,55 +644,55 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:C18"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>45183</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -700,41 +700,41 @@
         <v>45203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -742,18 +742,18 @@
         <v>45216</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -761,101 +761,101 @@
         <v>45203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45278</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45278</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="1">
         <v>45278</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -863,28 +863,28 @@
         <v>45278</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -892,10 +892,10 @@
         <v>45278</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -903,10 +903,10 @@
         <v>45278</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -914,10 +914,10 @@
         <v>45218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -928,149 +928,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>45203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>45278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>45278</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>44573</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1078,48 +1081,54 @@
         <v>45216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>44984</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>44984</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1127,13 +1136,13 @@
         <v>44910</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1141,45 +1150,45 @@
         <v>45216</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1187,53 +1196,53 @@
         <v>45278</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44915</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1">
-        <v>44915</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
       <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1241,10 +1250,10 @@
         <v>45278</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1252,10 +1261,13 @@
         <v>44925</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1263,29 +1275,32 @@
         <v>45278</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="10">
         <v>44566</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1293,10 +1308,10 @@
         <v>44936</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1304,40 +1319,21 @@
         <v>45278</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="1">
-        <v>44915</v>
-      </c>
-      <c r="C38" t="s">
-        <v>28</v>
+        <v>45279</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="1">
-        <v>44914</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4D6E0-59E1-4197-8E7F-5C6D63DFA220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D776D193-0502-4D87-AA6E-EDD74A14474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="35985" yWindow="1020" windowWidth="21600" windowHeight="13890" activeTab="2" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Warehouse" sheetId="2" r:id="rId2"/>
+    <sheet name="Compare" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -195,18 +196,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>no new data available</t>
-  </si>
-  <si>
     <t>2020 acs1 data not included</t>
   </si>
   <si>
-    <t>waiting on valuations, 12/20/22</t>
-  </si>
-  <si>
-    <t>waiting on…?</t>
-  </si>
-  <si>
     <t>nothing to update, 12/20/22</t>
   </si>
   <si>
@@ -237,9 +229,6 @@
     <t>Waiting to run till closer to modelling.</t>
   </si>
   <si>
-    <t>conrgessional disrtict failing for 2023</t>
-  </si>
-  <si>
     <t>no need to update, 12/18/23</t>
   </si>
   <si>
@@ -247,13 +236,385 @@
   </si>
   <si>
     <t>not mailing early in 2023</t>
+  </si>
+  <si>
+    <t>spatial-airport_noise_point_source.R</t>
+  </si>
+  <si>
+    <t>spatial-environment-secondary_road.R</t>
+  </si>
+  <si>
+    <t>ccao-commercial_valuation.R  </t>
+  </si>
+  <si>
+    <t>Not relevenat to model</t>
+  </si>
+  <si>
+    <t>No new data, 12/19/23</t>
+  </si>
+  <si>
+    <t>no longer used 12/19/23</t>
+  </si>
+  <si>
+    <t>conrgessional disrtict needs to be collected manually for 2023</t>
+  </si>
+  <si>
+    <t>don't need to run again</t>
+  </si>
+  <si>
+    <t>skim_variable</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>complete_rate</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>pin10</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>triad_name</t>
+  </si>
+  <si>
+    <t>triad_code</t>
+  </si>
+  <si>
+    <t>township_name</t>
+  </si>
+  <si>
+    <t>township_code</t>
+  </si>
+  <si>
+    <t>nbhd_code</t>
+  </si>
+  <si>
+    <t>tax_code</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>census_block_group_geoid</t>
+  </si>
+  <si>
+    <t>census_block_geoid</t>
+  </si>
+  <si>
+    <t>census_congressional_district_geoid</t>
+  </si>
+  <si>
+    <t>census_county_subdivision_geoid</t>
+  </si>
+  <si>
+    <t>census_place_geoid</t>
+  </si>
+  <si>
+    <t>census_puma_geoid</t>
+  </si>
+  <si>
+    <t>census_school_district_elementary_geoid</t>
+  </si>
+  <si>
+    <t>census_school_district_secondary_geoid</t>
+  </si>
+  <si>
+    <t>census_school_district_unified_geoid</t>
+  </si>
+  <si>
+    <t>census_state_representative_geoid</t>
+  </si>
+  <si>
+    <t>census_state_senate_geoid</t>
+  </si>
+  <si>
+    <t>census_tract_geoid</t>
+  </si>
+  <si>
+    <t>census_zcta_geoid</t>
+  </si>
+  <si>
+    <t>census_data_year</t>
+  </si>
+  <si>
+    <t>census_acs5_congressional_district_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_county_subdivision_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_place_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_puma_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_school_district_elementary_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_school_district_secondary_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_school_district_unified_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_state_representative_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_state_senate_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_tract_geoid</t>
+  </si>
+  <si>
+    <t>census_acs5_data_year</t>
+  </si>
+  <si>
+    <t>cook_board_of_review_district_num</t>
+  </si>
+  <si>
+    <t>cook_board_of_review_district_data_year</t>
+  </si>
+  <si>
+    <t>cook_commissioner_district_num</t>
+  </si>
+  <si>
+    <t>cook_commissioner_district_data_year</t>
+  </si>
+  <si>
+    <t>cook_judicial_district_num</t>
+  </si>
+  <si>
+    <t>cook_judicial_district_data_year</t>
+  </si>
+  <si>
+    <t>ward_name</t>
+  </si>
+  <si>
+    <t>ward_chicago_data_year</t>
+  </si>
+  <si>
+    <t>ward_evanston_data_year</t>
+  </si>
+  <si>
+    <t>chicago_community_area_num</t>
+  </si>
+  <si>
+    <t>chicago_community_area_name</t>
+  </si>
+  <si>
+    <t>chicago_community_area_data_year</t>
+  </si>
+  <si>
+    <t>chicago_industrial_corridor_num</t>
+  </si>
+  <si>
+    <t>chicago_industrial_corridor_name</t>
+  </si>
+  <si>
+    <t>chicago_industrial_corridor_data_year</t>
+  </si>
+  <si>
+    <t>chicago_police_district_num</t>
+  </si>
+  <si>
+    <t>chicago_police_district_data_year</t>
+  </si>
+  <si>
+    <t>econ_coordinated_care_area_num</t>
+  </si>
+  <si>
+    <t>econ_coordinated_care_area_data_year</t>
+  </si>
+  <si>
+    <t>econ_enterprise_zone_num</t>
+  </si>
+  <si>
+    <t>econ_enterprise_zone_data_year</t>
+  </si>
+  <si>
+    <t>econ_industrial_growth_zone_num</t>
+  </si>
+  <si>
+    <t>econ_industrial_growth_zone_data_year</t>
+  </si>
+  <si>
+    <t>econ_qualified_opportunity_zone_num</t>
+  </si>
+  <si>
+    <t>econ_qualified_opportunity_zone_data_year</t>
+  </si>
+  <si>
+    <t>env_flood_fema_data_year</t>
+  </si>
+  <si>
+    <t>env_flood_fs_data_year</t>
+  </si>
+  <si>
+    <t>env_ohare_noise_contour_data_year</t>
+  </si>
+  <si>
+    <t>env_airport_noise_data_year</t>
+  </si>
+  <si>
+    <t>school_elementary_district_geoid</t>
+  </si>
+  <si>
+    <t>school_elementary_district_name</t>
+  </si>
+  <si>
+    <t>school_secondary_district_geoid</t>
+  </si>
+  <si>
+    <t>school_secondary_district_name</t>
+  </si>
+  <si>
+    <t>school_unified_district_geoid</t>
+  </si>
+  <si>
+    <t>school_unified_district_name</t>
+  </si>
+  <si>
+    <t>school_school_year</t>
+  </si>
+  <si>
+    <t>school_data_year</t>
+  </si>
+  <si>
+    <t>tax_municipality_num</t>
+  </si>
+  <si>
+    <t>tax_municipality_name</t>
+  </si>
+  <si>
+    <t>tax_school_elementary_district_num</t>
+  </si>
+  <si>
+    <t>tax_school_elementary_district_name</t>
+  </si>
+  <si>
+    <t>tax_school_secondary_district_num</t>
+  </si>
+  <si>
+    <t>tax_school_secondary_district_name</t>
+  </si>
+  <si>
+    <t>tax_school_unified_district_num</t>
+  </si>
+  <si>
+    <t>tax_school_unified_district_name</t>
+  </si>
+  <si>
+    <t>tax_community_college_district_num</t>
+  </si>
+  <si>
+    <t>tax_community_college_district_name</t>
+  </si>
+  <si>
+    <t>tax_fire_protection_district_num</t>
+  </si>
+  <si>
+    <t>tax_fire_protection_district_name</t>
+  </si>
+  <si>
+    <t>tax_library_district_num</t>
+  </si>
+  <si>
+    <t>tax_library_district_name</t>
+  </si>
+  <si>
+    <t>tax_park_district_num</t>
+  </si>
+  <si>
+    <t>tax_park_district_name</t>
+  </si>
+  <si>
+    <t>tax_sanitation_district_num</t>
+  </si>
+  <si>
+    <t>tax_sanitation_district_name</t>
+  </si>
+  <si>
+    <t>tax_special_service_area_num</t>
+  </si>
+  <si>
+    <t>tax_special_service_area_name</t>
+  </si>
+  <si>
+    <t>tax_tif_district_num</t>
+  </si>
+  <si>
+    <t>tax_tif_district_name</t>
+  </si>
+  <si>
+    <t>tax_data_year</t>
+  </si>
+  <si>
+    <t>access_cmap_walk_id</t>
+  </si>
+  <si>
+    <t>access_cmap_walk_data_year</t>
+  </si>
+  <si>
+    <t>misc_subdivision_id</t>
+  </si>
+  <si>
+    <t>misc_subdivision_data_year</t>
+  </si>
+  <si>
+    <t>env_flood_fema_sfha</t>
+  </si>
+  <si>
+    <t>env_ohare_noise_contour_no_buffer_bool</t>
+  </si>
+  <si>
+    <t>env_ohare_noise_contour_half_mile_buffer_bool</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>x_3435</t>
+  </si>
+  <si>
+    <t>y_3435</t>
+  </si>
+  <si>
+    <t>ward_num</t>
+  </si>
+  <si>
+    <t>env_flood_fs_factor</t>
+  </si>
+  <si>
+    <t>env_flood_fs_risk_direction</t>
+  </si>
+  <si>
+    <t>env_airport_noise_dnl</t>
+  </si>
+  <si>
+    <t>access_cmap_walk_nta_score</t>
+  </si>
+  <si>
+    <t>access_cmap_walk_total_score</t>
+  </si>
+  <si>
+    <t>SELECT * from default.vw_pin_universe TABLESAMPLE BERNOULLI (25) where year IN ('2022', '2023')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +632,12 @@
       <name val="JetBrains Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +653,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,9 +682,11 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,14 +1001,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D26"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
@@ -656,7 +1017,7 @@
     <col min="5" max="5" width="54.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -673,15 +1034,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -692,7 +1053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -704,56 +1065,59 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>45216</v>
+        <v>45279</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -764,100 +1128,103 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" s="10" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45278</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45278</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>45278</v>
@@ -866,27 +1233,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>45278</v>
@@ -895,29 +1262,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B28" s="1">
         <v>45278</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B29" s="1">
         <v>45218</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -928,13 +1324,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
@@ -943,7 +1339,7 @@
     <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -960,316 +1356,319 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>45203</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:5" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="6" customFormat="1">
       <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>45278</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>45278</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="1">
         <v>44573</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>45216</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1">
+      <c r="A17" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44984</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="B17" s="5">
         <v>44984</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45279</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>44910</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>45216</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
-        <v>45278</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="10">
-        <v>44915</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B29" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
       </c>
       <c r="D30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>15</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45278</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>44925</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
       </c>
       <c r="B33" s="1">
         <v>45278</v>
@@ -1278,62 +1677,87 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44925</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B37" s="1">
         <v>44566</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="1">
-        <v>44936</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45278</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44936</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <v>45279</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D38" t="s">
-        <v>64</v>
+      <c r="D40" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1341,4 +1765,2502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA852B2-127D-4B3A-8504-0AB427458A62}">
+  <dimension ref="A1:E225"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8">
+        <v>0.99999785399999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>0.99999785399999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>0.99999785399999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>0.99999785399999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20">
+        <v>0.97318442699999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21">
+        <v>0.97333310399999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="C22">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+      <c r="C24">
+        <v>0.99982828400000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>0.99982391000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>2022</v>
+      </c>
+      <c r="C26">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30">
+        <v>0.97946493300000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31">
+        <v>0.97911615699999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>2022</v>
+      </c>
+      <c r="C32">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>2022</v>
+      </c>
+      <c r="C34">
+        <v>0.498033854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>0.49860094399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>2022</v>
+      </c>
+      <c r="C36">
+        <v>0.498033854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>0.49860094399999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38">
+        <v>2022</v>
+      </c>
+      <c r="C38">
+        <v>0.50181804100000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>0.50123799899999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>2022</v>
+      </c>
+      <c r="C40">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>2022</v>
+      </c>
+      <c r="C44">
+        <v>0.99982828400000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>0.99982391000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46">
+        <v>2022</v>
+      </c>
+      <c r="C46">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>2022</v>
+      </c>
+      <c r="C48">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>2022</v>
+      </c>
+      <c r="C52">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54">
+        <v>0.97946493300000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>0.97907106099999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56">
+        <v>2022</v>
+      </c>
+      <c r="C56">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58">
+        <v>2022</v>
+      </c>
+      <c r="C58">
+        <v>0.498033854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>0.49860094399999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60">
+        <v>2022</v>
+      </c>
+      <c r="C60">
+        <v>0.498033854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>0.49860094399999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62">
+        <v>2022</v>
+      </c>
+      <c r="C62">
+        <v>0.50181804100000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>0.50123799899999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>2022</v>
+      </c>
+      <c r="C64">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66">
+        <v>2022</v>
+      </c>
+      <c r="C66">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68">
+        <v>2022</v>
+      </c>
+      <c r="C68">
+        <v>0.99982828400000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>0.99982391000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
+        <v>2022</v>
+      </c>
+      <c r="C70">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72">
+        <v>2022</v>
+      </c>
+      <c r="C72">
+        <v>0.99978750199999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>0.999789551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74">
+        <v>2022</v>
+      </c>
+      <c r="C74">
+        <v>0.99978750199999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>0.999789551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76">
+        <v>2022</v>
+      </c>
+      <c r="C76">
+        <v>0.99978106200000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>0.9993708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78">
+        <v>2022</v>
+      </c>
+      <c r="C78">
+        <v>0.99978106200000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79">
+        <v>2023</v>
+      </c>
+      <c r="C79">
+        <v>0.9993708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>2022</v>
+      </c>
+      <c r="C80">
+        <v>0.99921654699999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81">
+        <v>2023</v>
+      </c>
+      <c r="C81">
+        <v>0.99923121699999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82">
+        <v>2022</v>
+      </c>
+      <c r="C82">
+        <v>0.99921654699999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83">
+        <v>2023</v>
+      </c>
+      <c r="C83">
+        <v>0.99923121699999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84">
+        <v>2022</v>
+      </c>
+      <c r="C84">
+        <v>0.48728658899999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85">
+        <v>2023</v>
+      </c>
+      <c r="C85">
+        <v>0.48656025400000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86">
+        <v>2022</v>
+      </c>
+      <c r="C86">
+        <v>0.47412027800000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87">
+        <v>2023</v>
+      </c>
+      <c r="C87">
+        <v>0.47345014000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>2022</v>
+      </c>
+      <c r="C88">
+        <v>1.3166311E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89">
+        <v>2023</v>
+      </c>
+      <c r="C89">
+        <v>1.3110114000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90">
+        <v>2022</v>
+      </c>
+      <c r="C90">
+        <v>0.47412027800000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91">
+        <v>2023</v>
+      </c>
+      <c r="C91">
+        <v>0.47344584499999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92">
+        <v>2022</v>
+      </c>
+      <c r="C92">
+        <v>0.47412027800000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
+      <c r="C93">
+        <v>0.47344584499999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94">
+        <v>2022</v>
+      </c>
+      <c r="C94">
+        <v>0.47412027800000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
+      <c r="C95">
+        <v>0.47344584499999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>2022</v>
+      </c>
+      <c r="C96">
+        <v>7.5576430000000002E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97">
+        <v>2023</v>
+      </c>
+      <c r="C97">
+        <v>7.5697220000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98">
+        <v>2022</v>
+      </c>
+      <c r="C98">
+        <v>7.5576430000000002E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
+      <c r="C99">
+        <v>7.5697220000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100">
+        <v>2022</v>
+      </c>
+      <c r="C100">
+        <v>7.5576430000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
+      <c r="C101">
+        <v>7.5697220000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102">
+        <v>2022</v>
+      </c>
+      <c r="C102">
+        <v>0.47893261399999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103">
+        <v>2023</v>
+      </c>
+      <c r="C103">
+        <v>0.47825181300000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104">
+        <v>2022</v>
+      </c>
+      <c r="C104">
+        <v>0.47893261399999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105">
+        <v>2023</v>
+      </c>
+      <c r="C105">
+        <v>0.47825181300000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106">
+        <v>2022</v>
+      </c>
+      <c r="C106">
+        <v>0.51254598799999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107">
+        <v>2023</v>
+      </c>
+      <c r="C107">
+        <v>0.51327224599999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108">
+        <v>2022</v>
+      </c>
+      <c r="C108">
+        <v>0.51254598799999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109">
+        <v>2023</v>
+      </c>
+      <c r="C109">
+        <v>0.51327224599999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110">
+        <v>2022</v>
+      </c>
+      <c r="C110">
+        <v>1.6516916E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111">
+        <v>2023</v>
+      </c>
+      <c r="C111">
+        <v>1.6492329999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112">
+        <v>2022</v>
+      </c>
+      <c r="C112">
+        <v>1.6516916E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113">
+        <v>2023</v>
+      </c>
+      <c r="C113">
+        <v>1.6492329999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114">
+        <v>2022</v>
+      </c>
+      <c r="C114">
+        <v>1.6516916E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115">
+        <v>2023</v>
+      </c>
+      <c r="C115">
+        <v>1.6481592999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116">
+        <v>2022</v>
+      </c>
+      <c r="C116">
+        <v>1.6516916E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117">
+        <v>2023</v>
+      </c>
+      <c r="C117">
+        <v>1.6481592999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118">
+        <v>2022</v>
+      </c>
+      <c r="C118">
+        <v>0.106807245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119">
+        <v>2023</v>
+      </c>
+      <c r="C119">
+        <v>0.107412744</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120">
+        <v>2022</v>
+      </c>
+      <c r="C120">
+        <v>0.106807245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121">
+        <v>2023</v>
+      </c>
+      <c r="C121">
+        <v>0.107412744</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122">
+        <v>2022</v>
+      </c>
+      <c r="C122">
+        <v>0.999817552</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B123">
+        <v>2023</v>
+      </c>
+      <c r="C123">
+        <v>0.99981961500000005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124">
+        <v>2022</v>
+      </c>
+      <c r="C124">
+        <v>0.99170397899999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125">
+        <v>2023</v>
+      </c>
+      <c r="C125">
+        <v>0.989449633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126">
+        <v>2022</v>
+      </c>
+      <c r="C126">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127">
+        <v>2023</v>
+      </c>
+      <c r="C127">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128">
+        <v>2022</v>
+      </c>
+      <c r="C128">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129">
+        <v>2023</v>
+      </c>
+      <c r="C129">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130">
+        <v>2022</v>
+      </c>
+      <c r="C130">
+        <v>0.97193948699999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131">
+        <v>2023</v>
+      </c>
+      <c r="C131">
+        <v>0.97181701200000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132">
+        <v>2022</v>
+      </c>
+      <c r="C132">
+        <v>0.97193948699999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133">
+        <v>2023</v>
+      </c>
+      <c r="C133">
+        <v>0.97181701200000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134">
+        <v>2022</v>
+      </c>
+      <c r="C134">
+        <v>0.97193948699999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135">
+        <v>2023</v>
+      </c>
+      <c r="C135">
+        <v>0.97181701200000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136">
+        <v>2022</v>
+      </c>
+      <c r="C136">
+        <v>0.97193948699999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137">
+        <v>2023</v>
+      </c>
+      <c r="C137">
+        <v>0.97181701200000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138">
+        <v>2022</v>
+      </c>
+      <c r="C138">
+        <v>2.7717081000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>2023</v>
+      </c>
+      <c r="C139">
+        <v>2.7837250000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>2022</v>
+      </c>
+      <c r="C140">
+        <v>2.7717081000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>2023</v>
+      </c>
+      <c r="C141">
+        <v>2.7837250000000001E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>2022</v>
+      </c>
+      <c r="C142">
+        <v>0.99965656800000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>2023</v>
+      </c>
+      <c r="C143">
+        <v>0.99965426199999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>2022</v>
+      </c>
+      <c r="C144">
+        <v>0.99965656800000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>2023</v>
+      </c>
+      <c r="C145">
+        <v>0.99965426199999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>2022</v>
+      </c>
+      <c r="C146">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>2023</v>
+      </c>
+      <c r="C147">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>2022</v>
+      </c>
+      <c r="C148">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>2023</v>
+      </c>
+      <c r="C149">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>2022</v>
+      </c>
+      <c r="C150">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>2023</v>
+      </c>
+      <c r="C151">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>2022</v>
+      </c>
+      <c r="C152">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2023</v>
+      </c>
+      <c r="C153">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2022</v>
+      </c>
+      <c r="C154">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>2023</v>
+      </c>
+      <c r="C155">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2022</v>
+      </c>
+      <c r="C156">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>2023</v>
+      </c>
+      <c r="C157">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>2022</v>
+      </c>
+      <c r="C158">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159">
+        <v>2023</v>
+      </c>
+      <c r="C159">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160">
+        <v>2022</v>
+      </c>
+      <c r="C160">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161">
+        <v>2023</v>
+      </c>
+      <c r="C161">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162">
+        <v>2022</v>
+      </c>
+      <c r="C162">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <v>2023</v>
+      </c>
+      <c r="C163">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164">
+        <v>2022</v>
+      </c>
+      <c r="C164">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>158</v>
+      </c>
+      <c r="B165">
+        <v>2023</v>
+      </c>
+      <c r="C165">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166">
+        <v>2022</v>
+      </c>
+      <c r="C166">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167">
+        <v>2023</v>
+      </c>
+      <c r="C167">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168">
+        <v>2022</v>
+      </c>
+      <c r="C168">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+      <c r="B169">
+        <v>2023</v>
+      </c>
+      <c r="C169">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>161</v>
+      </c>
+      <c r="B170">
+        <v>2022</v>
+      </c>
+      <c r="C170">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>161</v>
+      </c>
+      <c r="B171">
+        <v>2023</v>
+      </c>
+      <c r="C171">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172">
+        <v>2022</v>
+      </c>
+      <c r="C172">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173">
+        <v>2023</v>
+      </c>
+      <c r="C173">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174">
+        <v>2022</v>
+      </c>
+      <c r="C174">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>163</v>
+      </c>
+      <c r="B175">
+        <v>2023</v>
+      </c>
+      <c r="C175">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176">
+        <v>2022</v>
+      </c>
+      <c r="C176">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177">
+        <v>2023</v>
+      </c>
+      <c r="C177">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178">
+        <v>2022</v>
+      </c>
+      <c r="C178">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179">
+        <v>2023</v>
+      </c>
+      <c r="C179">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180">
+        <v>2022</v>
+      </c>
+      <c r="C180">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181">
+        <v>2023</v>
+      </c>
+      <c r="C181">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182">
+        <v>2022</v>
+      </c>
+      <c r="C182">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183">
+        <v>2023</v>
+      </c>
+      <c r="C183">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184">
+        <v>2022</v>
+      </c>
+      <c r="C184">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185">
+        <v>2023</v>
+      </c>
+      <c r="C185">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186">
+        <v>2022</v>
+      </c>
+      <c r="C186">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187">
+        <v>2023</v>
+      </c>
+      <c r="C187">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>170</v>
+      </c>
+      <c r="B188">
+        <v>2022</v>
+      </c>
+      <c r="C188">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>170</v>
+      </c>
+      <c r="B189">
+        <v>2023</v>
+      </c>
+      <c r="C189">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190">
+        <v>2022</v>
+      </c>
+      <c r="C190">
+        <v>0.99698424100000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>171</v>
+      </c>
+      <c r="B191">
+        <v>2023</v>
+      </c>
+      <c r="C191">
+        <v>0.99471730000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192">
+        <v>2022</v>
+      </c>
+      <c r="C192">
+        <v>0.99964368999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>172</v>
+      </c>
+      <c r="B193">
+        <v>2023</v>
+      </c>
+      <c r="C193">
+        <v>0.99966714700000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>173</v>
+      </c>
+      <c r="B194">
+        <v>2022</v>
+      </c>
+      <c r="C194">
+        <v>0.99964368999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195">
+        <v>2023</v>
+      </c>
+      <c r="C195">
+        <v>0.99966714700000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196">
+        <v>2022</v>
+      </c>
+      <c r="C196">
+        <v>0.94992337199999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>174</v>
+      </c>
+      <c r="B197">
+        <v>2023</v>
+      </c>
+      <c r="C197">
+        <v>0.94983797599999997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198">
+        <v>2022</v>
+      </c>
+      <c r="C198">
+        <v>0.94992337199999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199">
+        <v>2023</v>
+      </c>
+      <c r="C199">
+        <v>0.94983797599999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200">
+        <v>2022</v>
+      </c>
+      <c r="C200">
+        <v>0.999817552</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>176</v>
+      </c>
+      <c r="B201">
+        <v>2023</v>
+      </c>
+      <c r="C201">
+        <v>0.99981961500000005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>177</v>
+      </c>
+      <c r="B202">
+        <v>2022</v>
+      </c>
+      <c r="C202">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>177</v>
+      </c>
+      <c r="B203">
+        <v>2023</v>
+      </c>
+      <c r="C203">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>178</v>
+      </c>
+      <c r="B204">
+        <v>2022</v>
+      </c>
+      <c r="C204">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>178</v>
+      </c>
+      <c r="B205">
+        <v>2023</v>
+      </c>
+      <c r="C205">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>179</v>
+      </c>
+      <c r="B206">
+        <v>2022</v>
+      </c>
+      <c r="C206">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>179</v>
+      </c>
+      <c r="B207">
+        <v>2023</v>
+      </c>
+      <c r="C207">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>180</v>
+      </c>
+      <c r="B208">
+        <v>2022</v>
+      </c>
+      <c r="C208">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209">
+        <v>2023</v>
+      </c>
+      <c r="C209">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>181</v>
+      </c>
+      <c r="B210">
+        <v>2022</v>
+      </c>
+      <c r="C210">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>181</v>
+      </c>
+      <c r="B211">
+        <v>2023</v>
+      </c>
+      <c r="C211">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>182</v>
+      </c>
+      <c r="B212">
+        <v>2022</v>
+      </c>
+      <c r="C212">
+        <v>0.99985189500000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>182</v>
+      </c>
+      <c r="B213">
+        <v>2023</v>
+      </c>
+      <c r="C213">
+        <v>0.99983894200000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>183</v>
+      </c>
+      <c r="B214">
+        <v>2022</v>
+      </c>
+      <c r="C214">
+        <v>0.48728658899999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>183</v>
+      </c>
+      <c r="B215">
+        <v>2023</v>
+      </c>
+      <c r="C215">
+        <v>0.48656025400000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>184</v>
+      </c>
+      <c r="B216">
+        <v>2022</v>
+      </c>
+      <c r="C216">
+        <v>0.99170397899999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>184</v>
+      </c>
+      <c r="B217">
+        <v>2023</v>
+      </c>
+      <c r="C217">
+        <v>0.989449633</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218">
+        <v>2022</v>
+      </c>
+      <c r="C218">
+        <v>0.99170397899999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219">
+        <v>2023</v>
+      </c>
+      <c r="C219">
+        <v>0.989449633</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>186</v>
+      </c>
+      <c r="B220">
+        <v>2022</v>
+      </c>
+      <c r="C220">
+        <v>0.99700141200000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>186</v>
+      </c>
+      <c r="B221">
+        <v>2023</v>
+      </c>
+      <c r="C221">
+        <v>0.99473877499999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>187</v>
+      </c>
+      <c r="B222">
+        <v>2022</v>
+      </c>
+      <c r="C222">
+        <v>0.99964368999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223">
+        <v>2023</v>
+      </c>
+      <c r="C223">
+        <v>0.99966714700000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>188</v>
+      </c>
+      <c r="B224">
+        <v>2022</v>
+      </c>
+      <c r="C224">
+        <v>0.99964368999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>188</v>
+      </c>
+      <c r="B225">
+        <v>2023</v>
+      </c>
+      <c r="C225">
+        <v>0.99966714700000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D776D193-0502-4D87-AA6E-EDD74A14474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF98D0-596F-4856-BF79-8B7ABF986F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35985" yWindow="1020" windowWidth="21600" windowHeight="13890" activeTab="2" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="31950" yWindow="1920" windowWidth="23565" windowHeight="13560" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,6 +687,8 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,9 +1005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1085,13 +1087,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" s="11" customFormat="1">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="12">
+        <v>45301</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1326,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1396,11 +1402,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="12">
+        <v>45300</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1502,18 +1511,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5">
-        <v>44984</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="12">
+        <v>45301</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1">
@@ -1771,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA852B2-127D-4B3A-8504-0AB427458A62}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF98D0-596F-4856-BF79-8B7ABF986F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949E1D6-DC79-4288-B3BD-0BD5FDD207B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="1920" windowWidth="23565" windowHeight="13560" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="31950" yWindow="1920" windowWidth="23565" windowHeight="13560" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -637,18 +637,12 @@
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -669,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -680,8 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,9 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,11 +1028,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1087,32 +1079,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="1">
         <v>45301</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" s="9" customFormat="1">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>45279</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="10">
+        <v>45308</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1134,13 +1123,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" s="8" customFormat="1">
+      <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1191,7 +1180,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1">
@@ -1218,7 +1207,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="1">
@@ -1332,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,7 +1352,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="3"/>
@@ -1373,13 +1362,13 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1402,22 +1391,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="1">
         <v>45300</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1511,28 +1500,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="1">
         <v>45301</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" s="9" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
-        <v>45279</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="10">
+        <v>45308</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1662,7 +1651,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="1">

--- a/aws-s3/update_inventory.xlsx
+++ b/aws-s3/update_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wridgew\Documents\data-architecture\aws-s3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\data-architecture\aws-s3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949E1D6-DC79-4288-B3BD-0BD5FDD207B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC5C6EB-CD58-4245-AB15-4C933E80083D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="1920" windowWidth="23565" windowHeight="13560" activeTab="1" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C446241-3B2D-4EFC-B595-695EA445075D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="191">
   <si>
     <t>ccao-condominium-pin_condo_char.R</t>
   </si>
@@ -608,13 +608,16 @@
   </si>
   <si>
     <t>SELECT * from default.vw_pin_universe TABLESAMPLE BERNOULLI (25) where year IN ('2022', '2023')</t>
+  </si>
+  <si>
+    <t>1/28/024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,14 +676,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,9 +700,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,7 +740,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -845,7 +846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -987,7 +988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,21 +998,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E138CF-54D8-4F6E-9B04-C9597DC88E9C}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:C8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1028,15 +1029,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1063,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1093,18 +1097,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <v>45308</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1123,17 +1127,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1179,8 +1183,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="1">
@@ -1190,7 +1194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1206,8 +1210,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="1">
@@ -1217,7 +1221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1321,20 +1325,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5475F86-C267-4D66-A7A8-8A1BD6C317DA}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1351,8 +1355,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="3"/>
@@ -1362,17 +1366,21 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1511,21 +1519,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="1">
         <v>45308</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1658,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="1">
@@ -1661,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +1713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1770,14 +1778,14 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1857,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>0.99999785399999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>0.99999785399999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1901,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1912,7 +1920,7 @@
         <v>0.99999785399999996</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -1923,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>0.99999785399999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1945,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1956,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>0.97318442699999996</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>0.97333310399999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2022,7 +2030,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>0.99982828400000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v>0.99982391000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>0.97946493300000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2121,7 +2129,7 @@
         <v>0.97911615699999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>0.498033854</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>0.49860094399999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>0.498033854</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>0.49860094399999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>0.50181804100000005</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2209,7 +2217,7 @@
         <v>0.50123799899999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2231,7 +2239,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>0.99982828400000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -2275,7 +2283,7 @@
         <v>0.99982391000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2286,7 +2294,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2308,7 +2316,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2330,7 +2338,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2341,7 +2349,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -2363,7 +2371,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2374,7 +2382,7 @@
         <v>0.97946493300000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>0.97907106099999996</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>0.498033854</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>0.49860094399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>0.498033854</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>0.49860094399999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -2462,7 +2470,7 @@
         <v>0.50181804100000005</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>0.50123799899999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -2484,7 +2492,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2506,7 +2514,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -2517,7 +2525,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -2528,7 +2536,7 @@
         <v>0.99982828400000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>0.99982391000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -2561,7 +2569,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -2572,7 +2580,7 @@
         <v>0.99978750199999999</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -2583,7 +2591,7 @@
         <v>0.999789551</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>0.99978750199999999</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>113</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>0.999789551</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -2616,7 +2624,7 @@
         <v>0.99978106200000005</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -2627,7 +2635,7 @@
         <v>0.9993708</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>0.99978106200000005</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>115</v>
       </c>
@@ -2649,7 +2657,7 @@
         <v>0.9993708</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -2660,7 +2668,7 @@
         <v>0.99921654699999995</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -2671,7 +2679,7 @@
         <v>0.99923121699999995</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>0.99921654699999995</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -2693,7 +2701,7 @@
         <v>0.99923121699999995</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -2704,7 +2712,7 @@
         <v>0.48728658899999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>0.48656025400000003</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>0.47412027800000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0.47345014000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -2748,7 +2756,7 @@
         <v>1.3166311E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>120</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>1.3110114000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>121</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>0.47412027800000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>121</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>0.47344584499999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>0.47412027800000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -2803,7 +2811,7 @@
         <v>0.47344584499999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>0.47412027800000001</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>0.47344584499999998</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>7.5576430000000002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>124</v>
       </c>
@@ -2847,7 +2855,7 @@
         <v>7.5697220000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>125</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>7.5576430000000002E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>7.5697220000000001E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>7.5576430000000002E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>7.5697220000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>0.47893261399999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -2913,7 +2921,7 @@
         <v>0.47825181300000003</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>0.47893261399999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -2935,7 +2943,7 @@
         <v>0.47825181300000003</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -2946,7 +2954,7 @@
         <v>0.51254598799999995</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -2957,7 +2965,7 @@
         <v>0.51327224599999999</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -2968,7 +2976,7 @@
         <v>0.51254598799999995</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>0.51327224599999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -2990,7 +2998,7 @@
         <v>1.6516916E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>1.6492329999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>1.6516916E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>1.6492329999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>1.6516916E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -3045,7 +3053,7 @@
         <v>1.6481592999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -3056,7 +3064,7 @@
         <v>1.6516916E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>1.6481592999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -3078,7 +3086,7 @@
         <v>0.106807245</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -3089,7 +3097,7 @@
         <v>0.107412744</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>0.106807245</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>0.107412744</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>0.999817552</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>0.99981961500000005</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>0.99170397899999996</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>0.989449633</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>0.97193948699999999</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>0.97181701200000004</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -3232,7 +3240,7 @@
         <v>0.97193948699999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3243,7 +3251,7 @@
         <v>0.97181701200000004</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -3254,7 +3262,7 @@
         <v>0.97193948699999999</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>0.97181701200000004</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>0.97193948699999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>0.97181701200000004</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>2.7717081000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -3309,7 +3317,7 @@
         <v>2.7837250000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>2.7717081000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>146</v>
       </c>
@@ -3331,7 +3339,7 @@
         <v>2.7837250000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>0.99965656800000002</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>0.99965426199999996</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -3364,7 +3372,7 @@
         <v>0.99965656800000002</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>0.99965426199999996</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3408,7 +3416,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3430,7 +3438,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3452,7 +3460,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -3518,7 +3526,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>156</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>157</v>
       </c>
@@ -3562,7 +3570,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -3573,7 +3581,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -3584,7 +3592,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>158</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>159</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>159</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>160</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>160</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>161</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>161</v>
       </c>
@@ -3661,7 +3669,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>162</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>163</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>164</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>164</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -3749,7 +3757,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>166</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>166</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>167</v>
       </c>
@@ -3782,7 +3790,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -3793,7 +3801,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -3804,7 +3812,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>168</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>169</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>169</v>
       </c>
@@ -3837,7 +3845,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -3859,7 +3867,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>171</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>0.99698424100000005</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>171</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>0.99471730000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>172</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>0.99964368999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>172</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>0.99966714700000003</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>173</v>
       </c>
@@ -3914,7 +3922,7 @@
         <v>0.99964368999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>173</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>0.99966714700000003</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -3936,7 +3944,7 @@
         <v>0.94992337199999999</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>174</v>
       </c>
@@ -3947,7 +3955,7 @@
         <v>0.94983797599999997</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>175</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>0.94992337199999999</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>175</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>0.94983797599999997</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>176</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>0.999817552</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>176</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>0.99981961500000005</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -4002,7 +4010,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>177</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>178</v>
       </c>
@@ -4024,7 +4032,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>178</v>
       </c>
@@ -4035,7 +4043,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>179</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>179</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>180</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>180</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>181</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>181</v>
       </c>
@@ -4101,7 +4109,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>182</v>
       </c>
@@ -4112,7 +4120,7 @@
         <v>0.99985189500000005</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>182</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>0.99983894200000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>183</v>
       </c>
@@ -4134,7 +4142,7 @@
         <v>0.48728658899999999</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -4145,7 +4153,7 @@
         <v>0.48656025400000003</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -4156,7 +4164,7 @@
         <v>0.99170397899999996</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -4167,7 +4175,7 @@
         <v>0.989449633</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>0.99170397899999996</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>185</v>
       </c>
@@ -4189,7 +4197,7 @@
         <v>0.989449633</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>0.99700141200000003</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -4211,7 +4219,7 @@
         <v>0.99473877499999996</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>187</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>0.99964368999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>187</v>
       </c>
@@ -4233,7 +4241,7 @@
         <v>0.99966714700000003</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>188</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>0.99964368999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>188</v>
       </c>
